--- a/renren-security/renren-admin/src/main/resources/excelTemplate/smallOrder.xlsx
+++ b/renren-security/renren-admin/src/main/resources/excelTemplate/smallOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cake_zuofang\renren-security\renren-admin\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,13 +275,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,31 +320,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,24 +671,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
@@ -669,101 +718,119 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F3:G3"/>
@@ -772,10 +839,14 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
